--- a/excel/atual.xlsx
+++ b/excel/atual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Fonseca\Desktop\BLOX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Fonseca\Desktop\BLOX\blox\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84EBA77-047F-4756-9FD0-37FBA35D05FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9930599-FBD7-432C-A44E-64F709903FCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{731713CE-4F6F-4F71-BD02-398E5AD803BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9268" uniqueCount="4649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10603" uniqueCount="5239">
   <si>
     <t>Acolhimento em Emergências</t>
   </si>
@@ -13978,6 +13978,1776 @@
   </si>
   <si>
     <t>Valorização de Resíduos Sólidos Orgânicos: Tecnologias e Práticas no processo de Sustentabilidade</t>
+  </si>
+  <si>
+    <t>Ética, Ciência e Profissão</t>
+  </si>
+  <si>
+    <t>Psicologia e Desenvolvimento Pessoal</t>
+  </si>
+  <si>
+    <t>Ética Profissional e Compliance</t>
+  </si>
+  <si>
+    <t>Ética e Serviço Social</t>
+  </si>
+  <si>
+    <t>Ética e Responsabilidade Socioambiental</t>
+  </si>
+  <si>
+    <t>Administração e Negócios</t>
+  </si>
+  <si>
+    <t>Voleibol</t>
+  </si>
+  <si>
+    <t>Vigilância Epidemiológica</t>
+  </si>
+  <si>
+    <t>Tópicos Especiais em Radiologia</t>
+  </si>
+  <si>
+    <t>Tópicos especiais em farmácia</t>
+  </si>
+  <si>
+    <t>Tópicos Especiais de Engenharia Elétrica</t>
+  </si>
+  <si>
+    <t>Tópicos Especiais de Engenharia Civil</t>
+  </si>
+  <si>
+    <t>Tópicos Emergentes em Psicologia III</t>
+  </si>
+  <si>
+    <t>Tópicos Emergentes em Psicologia II</t>
+  </si>
+  <si>
+    <t>Tópicos Emergentes em Psicologia I</t>
+  </si>
+  <si>
+    <t>Tópicos em Sistemas de Informação</t>
+  </si>
+  <si>
+    <t>Matemática, Computação e Tecnologias de Informação e Comunicacão</t>
+  </si>
+  <si>
+    <t>Tópicos em Saúde e Biossegurança</t>
+  </si>
+  <si>
+    <t>Tópicos em Gestão Financeira</t>
+  </si>
+  <si>
+    <t>Tópicos Educacionais- Sexualidade e Diversidade de Gêneros</t>
+  </si>
+  <si>
+    <t>Tópicos Educacionais- História e Cultura Africana e Indígena</t>
+  </si>
+  <si>
+    <t>Tópicos de Serviço Social</t>
+  </si>
+  <si>
+    <t>Tópicos de Matemática</t>
+  </si>
+  <si>
+    <t>Tópicos de Logística e de Transporte</t>
+  </si>
+  <si>
+    <t>Tópicos de Direito</t>
+  </si>
+  <si>
+    <t>Tópicos da Radiologia</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Psicologia</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Marketing</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Logística</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Gestão da TI</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Finanças</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Engenharia de Manutenção</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Enfermagem</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Educação Física</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Direito</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Ciências Contábeis</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Biomedicina</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Arquitetura e Urbanismo</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Análise e Desenvolvimento de Sistemas</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados em Administração</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados de Engenharia de Produção</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados de Engenharia de Computação</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados de Administração</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados Aplicados à Pedagogia</t>
+  </si>
+  <si>
+    <t>Tópicos aplicados à Educação Física</t>
+  </si>
+  <si>
+    <t>Técnicas do Exame Psicológico</t>
+  </si>
+  <si>
+    <t>Técnicas de Observação Psicológica</t>
+  </si>
+  <si>
+    <t>Técnicas de Construção Civil e Legislação das Construções</t>
+  </si>
+  <si>
+    <t>Técnicas de Construção Civil</t>
+  </si>
+  <si>
+    <t>Tutela Provisória e Recursos Cíveis</t>
+  </si>
+  <si>
+    <t>Tutela do Direito do Trabalho e Previdenciário</t>
+  </si>
+  <si>
+    <t>Treinamento Personalizado</t>
+  </si>
+  <si>
+    <t>Treinamento e Desenvolvimento Profissional</t>
+  </si>
+  <si>
+    <t>Transmissão e Distribuição de Energia</t>
+  </si>
+  <si>
+    <t>Trabalho Final de Graduação</t>
+  </si>
+  <si>
+    <t>Trabalho e Sociabilidade</t>
+  </si>
+  <si>
+    <t>Trabalho de Curso III</t>
+  </si>
+  <si>
+    <t>Trabalho de Curso II</t>
+  </si>
+  <si>
+    <t>Trabalho de Curso I</t>
+  </si>
+  <si>
+    <t>Trabalho de conclusão de curso II em Psicologia</t>
+  </si>
+  <si>
+    <t>Trabalho de Conclusão de Curso II - Biomedicina</t>
+  </si>
+  <si>
+    <t>Trabalho de conclusão de curso I em Psicologia</t>
+  </si>
+  <si>
+    <t>Trabalho de Conclusão de Curso I - Biomedicina</t>
+  </si>
+  <si>
+    <t>Toxicologia e Análises Toxicológicas</t>
+  </si>
+  <si>
+    <t>TI na Gestão de Negócios e Comércio Eletrônico</t>
+  </si>
+  <si>
+    <t>Teorias e Técnicas Psicoterápicas Psicodinâmicas</t>
+  </si>
+  <si>
+    <t>Teorias da Educação e Currículo</t>
+  </si>
+  <si>
+    <t>Teorias da Administração</t>
+  </si>
+  <si>
+    <t>Teoria Geral do Processo</t>
+  </si>
+  <si>
+    <t>Teoria Geral do Crime</t>
+  </si>
+  <si>
+    <t>Teoria Econômica</t>
+  </si>
+  <si>
+    <t>Teoria do Urbanismo</t>
+  </si>
+  <si>
+    <t>Teoria das Estruturas</t>
+  </si>
+  <si>
+    <t>Teoria da Empresa</t>
+  </si>
+  <si>
+    <t>Teoria da Constituição</t>
+  </si>
+  <si>
+    <t>Tendências Contemporâneas do Serviço Social III</t>
+  </si>
+  <si>
+    <t>Tendências Contemporâneas do Serviço Social II</t>
+  </si>
+  <si>
+    <t>Tendências Contemporâneas do Serviço Social I</t>
+  </si>
+  <si>
+    <t>Tecnologias Web</t>
+  </si>
+  <si>
+    <t>Tecnologias da Informação e Comunicação Educacionais</t>
+  </si>
+  <si>
+    <t>Tecnologia em Tomografia Computadorizada</t>
+  </si>
+  <si>
+    <t>Tecnologia em Ressonância Magnética</t>
+  </si>
+  <si>
+    <t>Tecnologia em Medicina Nuclear</t>
+  </si>
+  <si>
+    <t>Tecnologia em Hemodinâmica e Radiologia Digital</t>
+  </si>
+  <si>
+    <t>Tecnologia dos Materiais Elétricos</t>
+  </si>
+  <si>
+    <t>Tecnologia da Imagem – Crânio, Coluna Vertebral e Tronco</t>
+  </si>
+  <si>
+    <t>Tecnologia da imagem – Contrastados</t>
+  </si>
+  <si>
+    <t>Tecnologia da Imagem - Membros Superiores e Inferiores</t>
+  </si>
+  <si>
+    <t>Supervisão Acadêmica III</t>
+  </si>
+  <si>
+    <t>Supervisão Acadêmica II</t>
+  </si>
+  <si>
+    <t>Supervisão Acadêmica I</t>
+  </si>
+  <si>
+    <t>Sociedades Empresariais</t>
+  </si>
+  <si>
+    <t>Sistemas Elétricos de Potência</t>
+  </si>
+  <si>
+    <t>Sistemas Digitais Programáveis</t>
+  </si>
+  <si>
+    <t>Sistemas de Informação, Marketing Digital e Inteligência de Mercado</t>
+  </si>
+  <si>
+    <t>Sistemas de Informação Gerencial</t>
+  </si>
+  <si>
+    <t>Sistemas Computacionais em Radiologia</t>
+  </si>
+  <si>
+    <t>Serviço Social, Raça e Etnia</t>
+  </si>
+  <si>
+    <t>Serviço Social, Gênero e Diversidade Sexual</t>
+  </si>
+  <si>
+    <t>Serviço Social, Classes e Movimentos Sociais</t>
+  </si>
+  <si>
+    <t>Serviço Social e Saúde</t>
+  </si>
+  <si>
+    <t>Serviço Social e Processo de Envelhecimento</t>
+  </si>
+  <si>
+    <t>Serviço Social e Habitação</t>
+  </si>
+  <si>
+    <t>Serviço Social e Assistência Social</t>
+  </si>
+  <si>
+    <t>Serviço Social , Famílias, Crianças e Adolescentes</t>
+  </si>
+  <si>
+    <t>Seminários Temáticos em Psicologia II</t>
+  </si>
+  <si>
+    <t>Seminários Temáticos em Psicologia I</t>
+  </si>
+  <si>
+    <t>Seminários Temáticos da Ênfase II - Psicologia</t>
+  </si>
+  <si>
+    <t>Seminários Temáticos da Ênfase I - Psicologia</t>
+  </si>
+  <si>
+    <t>Seguridade Social no Brasil</t>
+  </si>
+  <si>
+    <t>Saúde, Segurança e Qualidade de Vida no Trabalho</t>
+  </si>
+  <si>
+    <t>Saúde Pública e Epidemiologia</t>
+  </si>
+  <si>
+    <t>Retórica do Discurso</t>
+  </si>
+  <si>
+    <t>Reprodução Assistida</t>
+  </si>
+  <si>
+    <t>Redes de Computadores e Internet</t>
+  </si>
+  <si>
+    <t>Recurso e Execução Penal</t>
+  </si>
+  <si>
+    <t>Radioterapia</t>
+  </si>
+  <si>
+    <t>Radioproteção</t>
+  </si>
+  <si>
+    <t>Radiologia Odontológica e Veterinária</t>
+  </si>
+  <si>
+    <t>Radiologia Industrial</t>
+  </si>
+  <si>
+    <t>Química orgânica experimental</t>
+  </si>
+  <si>
+    <t>Química Geral e Inorgânica</t>
+  </si>
+  <si>
+    <t>Química Geral e Experimental</t>
+  </si>
+  <si>
+    <t>Química Farmacêutica e planejamento de fármacos</t>
+  </si>
+  <si>
+    <t>Química Farmacêutica</t>
+  </si>
+  <si>
+    <t>Química analítica quantitativa</t>
+  </si>
+  <si>
+    <t>Química analítica qualitativa</t>
+  </si>
+  <si>
+    <t>Questão Social e Serviço Social</t>
+  </si>
+  <si>
+    <t>Publicidade, Propaganda e Promoção</t>
+  </si>
+  <si>
+    <t>Psicossomática</t>
+  </si>
+  <si>
+    <t>Psicopatologia da Infância e da Adolescência e Psicoterapia Comportamental</t>
+  </si>
+  <si>
+    <t>Psicomotricidade</t>
+  </si>
+  <si>
+    <t>Psicologia Social</t>
+  </si>
+  <si>
+    <t>Psicologia Jurídica e Processos Grupais</t>
+  </si>
+  <si>
+    <t>Psicologia Hospitalar</t>
+  </si>
+  <si>
+    <t>Psicologia Geral: Processos Psicológicos</t>
+  </si>
+  <si>
+    <t>Psicologia e Comportamento Organizacional</t>
+  </si>
+  <si>
+    <t>Psicologia do Trabalho</t>
+  </si>
+  <si>
+    <t>Psicologia do Desenvolvimento: Vida Adulta e Velhice</t>
+  </si>
+  <si>
+    <t>Psicologia do Desenvolvimento: Infância</t>
+  </si>
+  <si>
+    <t>Psicologia do Desenvolvimento: Adolescência</t>
+  </si>
+  <si>
+    <t>Psicologia do Desenvolvimento e da Aprendizagem</t>
+  </si>
+  <si>
+    <t>Psicologia da Educação</t>
+  </si>
+  <si>
+    <t>Psicologia Comportamental</t>
+  </si>
+  <si>
+    <t>Psicodiagnóstico e atendimento psicológico de crianças e adolescentes- Ênfase PPS</t>
+  </si>
+  <si>
+    <t>Psicodiagnóstico e Atendimento Psicológico de Crianças e Adolescentes- Enfase PPE</t>
+  </si>
+  <si>
+    <t>Psicanálise: Primeira e Segunda Tópica</t>
+  </si>
+  <si>
+    <t>Psicanálise Desdobramentos da Teoria Freudiana</t>
+  </si>
+  <si>
+    <t>Psicanálise Contemporânea</t>
+  </si>
+  <si>
+    <t>Práticas Pedagógicas:Tecnologias</t>
+  </si>
+  <si>
+    <t>Práticas Pedagógicas: Responsabilidade Socioambiental</t>
+  </si>
+  <si>
+    <t>Práticas Pedagógicas: Inclusão</t>
+  </si>
+  <si>
+    <t>Práticas Pedagógicas: Globalização</t>
+  </si>
+  <si>
+    <t>Práticas Pedagógicas: Diversidade</t>
+  </si>
+  <si>
+    <t>Práticas Educativas e inclusivas</t>
+  </si>
+  <si>
+    <t>Práticas e Técnicas de Admissão, Recrutamento e Seleção</t>
+  </si>
+  <si>
+    <t>Práticas Biomédicas em Estética</t>
+  </si>
+  <si>
+    <t>Prática de Direito Público</t>
+  </si>
+  <si>
+    <t>Prática de Direito Privado</t>
+  </si>
+  <si>
+    <t>Prática Contábil Fiscal</t>
+  </si>
+  <si>
+    <t>Provas e Procedimentos Penais</t>
+  </si>
+  <si>
+    <t>Projetos Elétricos Prediais</t>
+  </si>
+  <si>
+    <t>Projetos de Instalações Hidráulicas e Saneamento</t>
+  </si>
+  <si>
+    <t>Projeto Luminotécnico</t>
+  </si>
+  <si>
+    <t>Projeto Integrador: Serviço Social, Famílias, Crianças e Adolescentes</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: – Serviço Social e Habitação</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Workshop em Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Técnicas de Pesquisa de Mercado e Perfis</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Técnicas de Pesquisa de Mercado e Logística</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Técnicas de pesquisa de mercado e investimento</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Tribunal do Júri</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Teoria e Clínica da Abordagem Fenomenológica e Humanista</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Tecnologias</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Símbolos do Direito</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Startup em saúde</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Serviço Social, Raça e Etnia</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Serviço Social, Classes e Movimentos Sociais</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Serviço Social e Assistência Social</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Reforma Psiquiátrica - A problemática da Loucura na Sociedade Contemporânea</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Raciocínio Clínico</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Psicologia, Ciência e Profissão</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Projeto de sustentabilidade empresarial</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Princípios e Aplicação do Desenvolvimento Socioemocional no Sujeito</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Políticas Públicas de Saúde</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Metodologia da Pesquisa Científica</t>
+  </si>
+  <si>
+    <t>Projeto integrador orientado: Intervenções Sociais e em Políticas Públicas do Profissional da Psicologia</t>
+  </si>
+  <si>
+    <t>Projeto integrador orientado: Inovações em saúde</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Inovações biomédicas</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Infraestrustura de TI</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Globalização</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Gestão da Qualidade</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Empreendedorismo Digital e Novos Negócios</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Doenças infectocontagiosas</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Doenças crônicas não transmissíveis</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Diversidade</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Desenvolvimento Lógico</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Cálculo de Medicação</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Cultura e Contemporaneidade</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Contrato Social</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Comunicação e Expressão</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Bioética</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Biodireito</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Aspectos Psicopatológicos da Formação do Sujeito</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Aplicações Web Front-end</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Aplicações Web Back-end</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado: Aplicações Mobile</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado- Serviço Social e Saúde</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado- Design de Produto</t>
+  </si>
+  <si>
+    <t>Projeto Integrador Orientado - Design de Mobiliário</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Sustentabilidade na Engenharia</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projetos Elétricos</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projetos e Protótipos em 2D e 3D</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projeto em Engenharia de Produção II</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projeto em Engenharia de Produção I</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projeto em Engenharia de Computação II</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projeto em Engenharia de Computação I</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projeto de Engenharia Elétrica II</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - Projeto de Engenharia Elétrica I</t>
+  </si>
+  <si>
+    <t>Projeto Integrador - A Química na Engenharia</t>
+  </si>
+  <si>
+    <t>Projeto e Desenvolvimento de Produtos</t>
+  </si>
+  <si>
+    <t>Projeto de Urbanismo</t>
+  </si>
+  <si>
+    <t>Projeto de Instalações Elétricas</t>
+  </si>
+  <si>
+    <t>Projeto de Fábrica</t>
+  </si>
+  <si>
+    <t>Projeto de Arquitetura e Urbanismo - Conjunto</t>
+  </si>
+  <si>
+    <t>Projeto de Arquitetura e Urbanismo - Complexo</t>
+  </si>
+  <si>
+    <t>Projeto de Arquitetura - Módulo</t>
+  </si>
+  <si>
+    <t>Projeto de Arquitetura - Equipamento</t>
+  </si>
+  <si>
+    <t>Projeto de Arquitetura - Edifício</t>
+  </si>
+  <si>
+    <t>Projeto de Arquitetura - Edificação</t>
+  </si>
+  <si>
+    <t>Projeto de Arquitetura - Complexo</t>
+  </si>
+  <si>
+    <t>Programação Web</t>
+  </si>
+  <si>
+    <t>Programação para Dispositivos Móveis II</t>
+  </si>
+  <si>
+    <t>Programação para Dispositivos Móveis I</t>
+  </si>
+  <si>
+    <t>Programação Java para Web</t>
+  </si>
+  <si>
+    <t>Programação de Dispositivos Móveis</t>
+  </si>
+  <si>
+    <t>Processos Patológicos Gerais</t>
+  </si>
+  <si>
+    <t>Processo do Exame Fisico em Enfermagem</t>
+  </si>
+  <si>
+    <t>Processo do Ciclo Reprodutivo e Puerperal</t>
+  </si>
+  <si>
+    <t>Processo de Sistematização da Assitência de Enfermagem</t>
+  </si>
+  <si>
+    <t>Processo de Conhecimento</t>
+  </si>
+  <si>
+    <t>Processo das Doenças Imunopreveníveis e o Programa de Imunização</t>
+  </si>
+  <si>
+    <t>Processo Avançado de Técnicas em Enfermagem</t>
+  </si>
+  <si>
+    <t>Processamento de Imagens e Visão Computacional</t>
+  </si>
+  <si>
+    <t>Primeiros Socorros</t>
+  </si>
+  <si>
+    <t>Prevenção e Qualidade de Vida</t>
+  </si>
+  <si>
+    <t>Portos, Aeroportos e Ferrovias</t>
+  </si>
+  <si>
+    <t>Políticas Públicas em Saúde- Ênfase em PPE</t>
+  </si>
+  <si>
+    <t>Políticas Públicas em Educação- Ênfase PPE</t>
+  </si>
+  <si>
+    <t>Políticas de Atenção a Saúde da Mulher e do Homem</t>
+  </si>
+  <si>
+    <t>Política Social</t>
+  </si>
+  <si>
+    <t>Politicas Públicas de Saúde e Redes de Ações à Saúde</t>
+  </si>
+  <si>
+    <t>Plástica</t>
+  </si>
+  <si>
+    <t>Planejamento, Organização e Gestão em Serviços de Saúde</t>
+  </si>
+  <si>
+    <t>Planejamento Urbano e Regional</t>
+  </si>
+  <si>
+    <t>Planejamento Estratégico e Empresarial</t>
+  </si>
+  <si>
+    <t>Planejamento Estratégico e Avaliação Financeira de Empresas</t>
+  </si>
+  <si>
+    <t>Planejamento Estratégico de RH e Cálculos Trabalhistas</t>
+  </si>
+  <si>
+    <t>Planejamento e Projeto Político Pedagógico</t>
+  </si>
+  <si>
+    <t>Planejamento e Gestão em Serviço Social</t>
+  </si>
+  <si>
+    <t>Planejamento de farmácos</t>
+  </si>
+  <si>
+    <t>Pessoas e Bens</t>
+  </si>
+  <si>
+    <t>Pesquisa em Serviço Social</t>
+  </si>
+  <si>
+    <t>Perícia Contábil, Mediação e Arbitragem</t>
+  </si>
+  <si>
+    <t>Pavimentação</t>
+  </si>
+  <si>
+    <t>Patologia Aplicada</t>
+  </si>
+  <si>
+    <t>Paisagem Urbana</t>
+  </si>
+  <si>
+    <t>Padrões de Projeto de Software</t>
+  </si>
+  <si>
+    <t>Orçamento e Finanças Públicas</t>
+  </si>
+  <si>
+    <t>Organização do Estado</t>
+  </si>
+  <si>
+    <t>Organização de Eventos</t>
+  </si>
+  <si>
+    <t>Organização da Administração Pública</t>
+  </si>
+  <si>
+    <t>Operações Logísticas</t>
+  </si>
+  <si>
+    <t>Obras de Terra</t>
+  </si>
+  <si>
+    <t>Noções de Contabilidade</t>
+  </si>
+  <si>
+    <t>Neuroanatomia e Neuropsicologia</t>
+  </si>
+  <si>
+    <t>Natação</t>
+  </si>
+  <si>
+    <t>Musculação</t>
+  </si>
+  <si>
+    <t>Modelagem e Simulação de Sistemas de Produção</t>
+  </si>
+  <si>
+    <t>Microcontroladores e Sistemas Embarcados</t>
+  </si>
+  <si>
+    <t>Microbiologia e Parasitologia básica</t>
+  </si>
+  <si>
+    <t>Metrologia</t>
+  </si>
+  <si>
+    <t>Metodologia do Treinamento Esportivo</t>
+  </si>
+  <si>
+    <t>Melhores Práticas em TI</t>
+  </si>
+  <si>
+    <t>Meios de Contraste em Radiologia</t>
+  </si>
+  <si>
+    <t>Medicina Nuclear e Diagnóstico por Imagem</t>
+  </si>
+  <si>
+    <t>Mediação, Conciliação e Arbitragem</t>
+  </si>
+  <si>
+    <t>Mecânica dos Solos, das Rochas e Elem. de Geologia</t>
+  </si>
+  <si>
+    <t>Materiais de Construção Civil</t>
+  </si>
+  <si>
+    <t>Matemática</t>
+  </si>
+  <si>
+    <t>Marketing de Serviços e Relacionamento</t>
+  </si>
+  <si>
+    <t>Mamografia</t>
+  </si>
+  <si>
+    <t>Língua Inglesa Aplicada</t>
+  </si>
+  <si>
+    <t>Humanidades, Artes e Linguagens</t>
+  </si>
+  <si>
+    <t>Lutas</t>
+  </si>
+  <si>
+    <t>Logística e Economia de transportes</t>
+  </si>
+  <si>
+    <t>Logística e Distribuição Física</t>
+  </si>
+  <si>
+    <t>Literatura Infanto Juvenil</t>
+  </si>
+  <si>
+    <t>Linhas de Transmissão</t>
+  </si>
+  <si>
+    <t>Liderança e Gestão Estratégica de Pessoas</t>
+  </si>
+  <si>
+    <t>LIBRAS</t>
+  </si>
+  <si>
+    <t>Leitura e Produção Textual</t>
+  </si>
+  <si>
+    <t>Legislação Trabalhista e Previdenciária</t>
+  </si>
+  <si>
+    <t>Legislação Profissional</t>
+  </si>
+  <si>
+    <t>Laboratório e Sistemas de Informação Contábil</t>
+  </si>
+  <si>
+    <t>Jogos e Brincadeiras</t>
+  </si>
+  <si>
+    <t>Jogos de Empresas</t>
+  </si>
+  <si>
+    <t>Investigação Penal e Ritos Processuais</t>
+  </si>
+  <si>
+    <t>Introdução à Robótica</t>
+  </si>
+  <si>
+    <t>Introdução ao Estudo do Direito</t>
+  </si>
+  <si>
+    <t>Interfaces da Atuação do Pedagogo</t>
+  </si>
+  <si>
+    <t>Inovações Farmacêuticas</t>
+  </si>
+  <si>
+    <t>Inovações Biomédicas</t>
+  </si>
+  <si>
+    <t>Inovação Tecnológica</t>
+  </si>
+  <si>
+    <t>Inovação e Gestão em Diagnósticos por Imagem</t>
+  </si>
+  <si>
+    <t>Iniciação ao Processo de Cuidar</t>
+  </si>
+  <si>
+    <t>Informática</t>
+  </si>
+  <si>
+    <t>Homeopatia</t>
+  </si>
+  <si>
+    <t>Homem e Sociedade</t>
+  </si>
+  <si>
+    <t>História e Fundamentos Epistemológicos da Psicologia</t>
+  </si>
+  <si>
+    <t>História do Pensamento e Hermenêutica Jurídica</t>
+  </si>
+  <si>
+    <t>História das Ideias Pedagógicas</t>
+  </si>
+  <si>
+    <t>História da Arte</t>
+  </si>
+  <si>
+    <t>História da Arquitetura e Urbanismo - Idade Média</t>
+  </si>
+  <si>
+    <t>História da Arquitetura e Urbanismo - Idade Antiga</t>
+  </si>
+  <si>
+    <t>Histologia e Embriologia Humana</t>
+  </si>
+  <si>
+    <t>Hidrologia Aplicada</t>
+  </si>
+  <si>
+    <t>Hematologia Básica</t>
+  </si>
+  <si>
+    <t>Handebol</t>
+  </si>
+  <si>
+    <t>Ginástica Laboral</t>
+  </si>
+  <si>
+    <t>Ginástica Geral</t>
+  </si>
+  <si>
+    <t>Ginástica Artística</t>
+  </si>
+  <si>
+    <t>Gestão Financeira e Contábil</t>
+  </si>
+  <si>
+    <t>Gestão Empresarial e Governança Corporativa</t>
+  </si>
+  <si>
+    <t>Gestão e Análise de Custos</t>
+  </si>
+  <si>
+    <t>Gestão de Transportes e Armazenagem</t>
+  </si>
+  <si>
+    <t>Gestão de Processos e Projetos</t>
+  </si>
+  <si>
+    <t>Gestão de Manutenção</t>
+  </si>
+  <si>
+    <t>Gestão de Investimentos e Mercado Financeiro</t>
+  </si>
+  <si>
+    <t>Gestão de Finanças</t>
+  </si>
+  <si>
+    <t>Gestão de Estoque e Cadeia de Suprimentos</t>
+  </si>
+  <si>
+    <t>Gestão de Custos e Formação de Preços</t>
+  </si>
+  <si>
+    <t>Gestão de Custos e Desempenhos Logísticos</t>
+  </si>
+  <si>
+    <t>Gestão da Qualidade e Produtividade</t>
+  </si>
+  <si>
+    <t>Gestão da Qualidade</t>
+  </si>
+  <si>
+    <t>Gestão da Inovação e Tecnologia</t>
+  </si>
+  <si>
+    <t>Gestão da Cadeia de Suprimentos</t>
+  </si>
+  <si>
+    <t>Gerência e Planejamento de Empresas e Empreendimentos de Construção</t>
+  </si>
+  <si>
+    <t>Geopolítica e Relações Internacionais</t>
+  </si>
+  <si>
+    <t>Geometría Analítica, Álgebra Linear e Cálculo Vetorial</t>
+  </si>
+  <si>
+    <t>Genética, Evolução e Comportamento Humano</t>
+  </si>
+  <si>
+    <t>Físico-Química</t>
+  </si>
+  <si>
+    <t>Física: Estática e Dinâmica</t>
+  </si>
+  <si>
+    <t>Física: Eletricidade e Eletromagnetismo</t>
+  </si>
+  <si>
+    <t>Física: Cinemática e Vetores</t>
+  </si>
+  <si>
+    <t>Física Radiológica</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Futebol</t>
+  </si>
+  <si>
+    <t>Fundamentos, Metodologias e Práticas de Ensino para Alunos com Deficiência</t>
+  </si>
+  <si>
+    <t>Fundamentos, Metodologias e Práticas de Ensino em Ciências Sociais: História e Geografia</t>
+  </si>
+  <si>
+    <t>Fundamentos, Metodologias e Práticas de Ensino das Ciências Naturais</t>
+  </si>
+  <si>
+    <t>Fundamentos, Metodologias e Práticas de Ensino da Língua Portuguesa</t>
+  </si>
+  <si>
+    <t>Fundamentos, Metodologias e Práticas de Ensino da Educação de Jovens e Adultos</t>
+  </si>
+  <si>
+    <t>Fundamentos, Metodologias e Práticas de Ensino da Alfabetização e Letramento</t>
+  </si>
+  <si>
+    <t>Fundamentos, Metodologias e Práticas das Ciências Exatas: Matemática</t>
+  </si>
+  <si>
+    <t>Fundamentos Históricos, Teóricos e Metodológicos do Serviço Social IV</t>
+  </si>
+  <si>
+    <t>Fundamentos Históricos Teóricos - Metodológicos do Serviço Social III</t>
+  </si>
+  <si>
+    <t>Fundamentos Históricos Teóricos - Metodológicos do Serviço Social II</t>
+  </si>
+  <si>
+    <t>Fundamentos Históricos Teóricos - Metodológicos do Serviço Social I</t>
+  </si>
+  <si>
+    <t>Fundamentos de Telecomunicações</t>
+  </si>
+  <si>
+    <t>Fundamentos da Promoção à Saude Mental e Assistência às Pessoas com Transtornos Mentais</t>
+  </si>
+  <si>
+    <t>Fundamentos da Gestão Educacional, Organização e Coordenação do Trabalho Escolar</t>
+  </si>
+  <si>
+    <t>Fundamentos da Farmácia Clínica e atenção farmacêutica</t>
+  </si>
+  <si>
+    <t>Fundamentos da Assistência de Enfermagem ao Paciente nas situações de Urgência e Emergência</t>
+  </si>
+  <si>
+    <t>Fundamentos da Assistência de Enfermagem ao Paciente Crítico</t>
+  </si>
+  <si>
+    <t>Formação Social, Econômica e Política do Brasil</t>
+  </si>
+  <si>
+    <t>Fisiologia Humana</t>
+  </si>
+  <si>
+    <t>Filosofia e Psicologia Aplicadas ao Direito</t>
+  </si>
+  <si>
+    <t>Filosofia da Educação</t>
+  </si>
+  <si>
+    <t>Fenomenologia</t>
+  </si>
+  <si>
+    <t>Fatos e Negócio Jurídico</t>
+  </si>
+  <si>
+    <t>Farmácia: histórico e perspectivas</t>
+  </si>
+  <si>
+    <t>Farmacotécnica II</t>
+  </si>
+  <si>
+    <t>Farmacotécnica I</t>
+  </si>
+  <si>
+    <t>Farmacologia: Farmacodinâmica</t>
+  </si>
+  <si>
+    <t>Farmacologia: Farmacocinética</t>
+  </si>
+  <si>
+    <t>Farmacognosia e Fitoterapia</t>
+  </si>
+  <si>
+    <t>Execução Civil</t>
+  </si>
+  <si>
+    <t>Estética do Projeto</t>
+  </si>
+  <si>
+    <t>Estática e Mecânica dos Sólidos</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado IV em Psicologia - Ênfase</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado III em Psicologia - Ênfase</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado II em Psicologia - Ênfase</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado I em Psicologia - Ênfase</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Serviço Social III</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Serviço Social II</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Serviço Social I</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Radiologia II</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Radiologia I</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia VIII</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia VII</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia VI</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia V</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia IV</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia III</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia II</t>
+  </si>
+  <si>
+    <t>Estágio supervisionado em Farmácia I</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Engenharia da Computação II</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Engenharia da Computação I</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Eng. Elétrica II</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Eng. Elétrica I</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Eng. da Produção II</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Eng. da Produção I</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Direito IV</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Direito III</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Direito II</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Direito I</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Biomedicina II</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado em Biomedicina I</t>
+  </si>
+  <si>
+    <t>Estágio Supervisionado - Arquitetura</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado no Ensino Fundamental</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado na Gestão Educacional</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado na EJA</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado na Educação Infantil</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado IV</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado III</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado II</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado I</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado em Contabilidade II</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado em Contabilidade I</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado em Ambientes Não Escolares</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado em Administração II</t>
+  </si>
+  <si>
+    <t>Estágio Curricular Supervisionado em Administração I</t>
+  </si>
+  <si>
+    <t>Estágio Básico III</t>
+  </si>
+  <si>
+    <t>Estágio Básico II</t>
+  </si>
+  <si>
+    <t>Estágio Básico I</t>
+  </si>
+  <si>
+    <t>Estudos Integradores</t>
+  </si>
+  <si>
+    <t>Estruturas de Pontes</t>
+  </si>
+  <si>
+    <t>Estruturas de Concreto Armado</t>
+  </si>
+  <si>
+    <t>Estruturas de Aço e Madeira</t>
+  </si>
+  <si>
+    <t>Estratégias de Produção</t>
+  </si>
+  <si>
+    <t>Estratégias Competitivas e Pesquisa de Marketing</t>
+  </si>
+  <si>
+    <t>Estradas</t>
+  </si>
+  <si>
+    <t>Estagio Curricular Supervionados em Serviços de Saúde II</t>
+  </si>
+  <si>
+    <t>Estagio Curricular Supervionados em Serviços de Saúde I</t>
+  </si>
+  <si>
+    <t>Ergonomia e Antropometria</t>
+  </si>
+  <si>
+    <t>Enzimologia e tecnologia das fermentações</t>
+  </si>
+  <si>
+    <t>Engenharia Econômica</t>
+  </si>
+  <si>
+    <t>Engenharia e Usabilidade de Interfaces</t>
+  </si>
+  <si>
+    <t>Engenharia e Segurança do Trabalho</t>
+  </si>
+  <si>
+    <t>Engenharia e Profissão</t>
+  </si>
+  <si>
+    <t>Enfermagem no Processo de Envelhecimento</t>
+  </si>
+  <si>
+    <t>Enfermagem no Processo das Afecções Clinicas</t>
+  </si>
+  <si>
+    <t>Enfermagem no Processo das Afecções Cirúrgicas</t>
+  </si>
+  <si>
+    <t>Enfermagem no Contexto Histórico Social e Exercício Profissional da Enfermagem</t>
+  </si>
+  <si>
+    <t>Enfermagem no Centro Cirúrgico e Central de Material e Esterelização e Recuperação Pós-Anestésica</t>
+  </si>
+  <si>
+    <t>Enfermagem nas Doenças Transmissíveis</t>
+  </si>
+  <si>
+    <t>Enfermagem nas Doenças de Notificação Compulsória</t>
+  </si>
+  <si>
+    <t>Enfermagem na Saúde do Trabalhador</t>
+  </si>
+  <si>
+    <t>Enfermagem na Saúde do Recém-Nascido</t>
+  </si>
+  <si>
+    <t>Enfermagem na Saúde da Criança e Adolescente</t>
+  </si>
+  <si>
+    <t>Empreendedorismo e Gestão de Serviços</t>
+  </si>
+  <si>
+    <t>Eletrônica Analógica II</t>
+  </si>
+  <si>
+    <t>Eletrônica Analógica I</t>
+  </si>
+  <si>
+    <t>Eletricidade e Eletrotécnica</t>
+  </si>
+  <si>
+    <t>Elementos de Máquinas</t>
+  </si>
+  <si>
+    <t>Educação Física Adaptada</t>
+  </si>
+  <si>
+    <t>Educação em Direitos Humanos</t>
+  </si>
+  <si>
+    <t>Educação Brasileira: Estrutura e Bases Legais</t>
+  </si>
+  <si>
+    <t>Economia Política e Serviço Social</t>
+  </si>
+  <si>
+    <t>Economia e Mercado</t>
+  </si>
+  <si>
+    <t>Diversificação e Aprofundamentos de Estudos - Pesquisa em Educação</t>
+  </si>
+  <si>
+    <t>Diversificação e Aprofundamentos de Estudos - Modalidades da Educação</t>
+  </si>
+  <si>
+    <t>Diversificação e Aprofundamento de Estudos - Ser professor: mapeamento da realidade escolar</t>
+  </si>
+  <si>
+    <t>Diversificação e Aprofundamento de Estudos - Projetos Educacionais</t>
+  </si>
+  <si>
+    <t>Diversificação e Aprofundamento de Estudos - Pesquisa e Prática em Educação</t>
+  </si>
+  <si>
+    <t>Diversificação e Aprofundamento de Estudos - Docência na Contemporaneidade</t>
+  </si>
+  <si>
+    <t>Dispositivos e Circuitos Eletrônicos</t>
+  </si>
+  <si>
+    <t>Direitos Reais</t>
+  </si>
+  <si>
+    <t>Direitos Humanos</t>
+  </si>
+  <si>
+    <t>Direito, Informática e Internet</t>
+  </si>
+  <si>
+    <t>Direito Tributário</t>
+  </si>
+  <si>
+    <t>Direito Processual do Trabalho</t>
+  </si>
+  <si>
+    <t>Direito Internacional</t>
+  </si>
+  <si>
+    <t>Direito Eleitoral</t>
+  </si>
+  <si>
+    <t>Direito Econômico e Financeiro</t>
+  </si>
+  <si>
+    <t>Direito e Legislação Social</t>
+  </si>
+  <si>
+    <t>Direito de Família</t>
+  </si>
+  <si>
+    <t>Direito das Sucessões</t>
+  </si>
+  <si>
+    <t>Direito Comercial, Societário e Tributário</t>
+  </si>
+  <si>
+    <t>Direito Ambiental, Difusos e Coletivos</t>
+  </si>
+  <si>
+    <t>Dificuldades de Aprendizagem</t>
+  </si>
+  <si>
+    <t>Didática Geral</t>
+  </si>
+  <si>
+    <t>Didática Aplicada à Pedagogia</t>
+  </si>
+  <si>
+    <t>Didática Aplicada à Educação Física</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Pessoal e Empregabilidade</t>
+  </si>
+  <si>
+    <t>Desenvolvimento e Aprendizagem Motora</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Desenho Urbano</t>
+  </si>
+  <si>
+    <t>Desenho de Elementos Arquitetônicos</t>
+  </si>
+  <si>
+    <t>Deontologia e legislação Farmacêutica</t>
+  </si>
+  <si>
+    <t>Deontologia e Legislação Biomédica</t>
+  </si>
+  <si>
+    <t>Densitometria Óssea e Ultrassonografia</t>
+  </si>
+  <si>
+    <t>Cálculos Trabalhistas</t>
+  </si>
+  <si>
+    <t>Cálculos para Ciências da Saúde</t>
+  </si>
+  <si>
+    <t>Cálculo: Integrais</t>
+  </si>
+  <si>
+    <t>Cálculo: Funções, Limites e Derivadas</t>
+  </si>
+  <si>
+    <t>Cálculo: Derivadas</t>
+  </si>
+  <si>
+    <t>Culturas Corporais</t>
+  </si>
+  <si>
+    <t>Criminologia</t>
+  </si>
+  <si>
+    <t>Crimes contra o Patrimônio</t>
+  </si>
+  <si>
+    <t>Crimes Contra a Pessoa</t>
+  </si>
+  <si>
+    <t>Crimes contra a Administração Pública</t>
+  </si>
+  <si>
+    <t>Cosmetologia</t>
+  </si>
+  <si>
+    <t>Conversão de Energia</t>
+  </si>
+  <si>
+    <t>Controle e Servomecanismos</t>
+  </si>
+  <si>
+    <t>Controle e Processamento Digital de Sinais</t>
+  </si>
+  <si>
+    <t>Controle de Qualidade</t>
+  </si>
+  <si>
+    <t>Contratos Públicos e Responsabilidade do Estado</t>
+  </si>
+  <si>
+    <t>Contratos</t>
+  </si>
+  <si>
+    <t>Conteúdos de Matemática e Estatística para a Educação</t>
+  </si>
+  <si>
+    <t>Contabilidade Internacional</t>
+  </si>
+  <si>
+    <t>Contabilidade Integral</t>
+  </si>
+  <si>
+    <t>Contabilidade Geral e Controladoria</t>
+  </si>
+  <si>
+    <t>Contabilidade Geral</t>
+  </si>
+  <si>
+    <t>Contabilidade e Planejamento Tributário</t>
+  </si>
+  <si>
+    <t>Contabilidade do Agronegócio</t>
+  </si>
+  <si>
+    <t>Contabilidade Aplicada</t>
+  </si>
+  <si>
+    <t>Conforto Ambiental - Térmica</t>
+  </si>
+  <si>
+    <t>Conforto Ambiental - Acústico</t>
+  </si>
+  <si>
+    <t>Condicionamento Físico</t>
+  </si>
+  <si>
+    <t>Comércio Exterior e Marketing Internacional</t>
+  </si>
+  <si>
+    <t>Comércio Exterior e Finanças Internacionais</t>
+  </si>
+  <si>
+    <t>Comércio e Logística Internacional</t>
+  </si>
+  <si>
+    <t>Comunicação Empresarial</t>
+  </si>
+  <si>
+    <t>Computação Gráfica Aplicada a Arquitetura e Urbanismo</t>
+  </si>
+  <si>
+    <t>Compiladores</t>
+  </si>
+  <si>
+    <t>Ciências Atuariais</t>
+  </si>
+  <si>
+    <t>Ciência Política e Teoria Geral do Estado</t>
+  </si>
+  <si>
+    <t>Ciência de Dados e Big Data</t>
+  </si>
+  <si>
+    <t>Citologia Oncótica</t>
+  </si>
+  <si>
+    <t>Circuitos Lógicos</t>
+  </si>
+  <si>
+    <t>Cinesiologia</t>
+  </si>
+  <si>
+    <t>Cineantropometria</t>
+  </si>
+  <si>
+    <t>Cenários Mundiais e Globalização</t>
+  </si>
+  <si>
+    <t>Cenografia</t>
+  </si>
+  <si>
+    <t>Brinquedoteca e Ludicidade na Educação</t>
+  </si>
+  <si>
+    <t>Bioquímica Estrutural</t>
+  </si>
+  <si>
+    <t>Bioquímica e Biofisica</t>
+  </si>
+  <si>
+    <t>Biomedicina: Histórico e Perspectivas</t>
+  </si>
+  <si>
+    <t>Biologia Celular e Genética</t>
+  </si>
+  <si>
+    <t>Basquetebol</t>
+  </si>
+  <si>
+    <t>Banco de Dados II</t>
+  </si>
+  <si>
+    <t>Banco de Dados I</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Ações Educativas na Prática de Enfermagem</t>
+  </si>
+  <si>
+    <t>Avaliação Psicológica</t>
+  </si>
+  <si>
+    <t>Automação Industrial: Processos Discretos</t>
+  </si>
+  <si>
+    <t>Automação Industrial: Processos Contínuos</t>
+  </si>
+  <si>
+    <t>Automação Industrial</t>
+  </si>
+  <si>
+    <t>Auditoria Contábil</t>
+  </si>
+  <si>
+    <t>Atletismo</t>
+  </si>
+  <si>
+    <t>Atividades Físicas Alternativas</t>
+  </si>
+  <si>
+    <t>Atividades Complementares</t>
+  </si>
+  <si>
+    <t>Arte e Educação</t>
+  </si>
+  <si>
+    <t>Arquitetura Brasileira</t>
+  </si>
+  <si>
+    <t>Análises e Tecnologia de Alimentos</t>
+  </si>
+  <si>
+    <t>Análises Clínicas - Módulo Parasitologia e Microbiologia</t>
+  </si>
+  <si>
+    <t>Análises Clínicas - Módulo Hematologia</t>
+  </si>
+  <si>
+    <t>Análises Clínicas - Módulo Bioquímica, Imunologia e Patologia</t>
+  </si>
+  <si>
+    <t>Análise experimental: Behaviorismo</t>
+  </si>
+  <si>
+    <t>Análise de Demonstrações Financeiras e Contábeis</t>
+  </si>
+  <si>
+    <t>Análise de Decisão</t>
+  </si>
+  <si>
+    <t>Análise de Dados na Pesquisa em Psicologia</t>
+  </si>
+  <si>
+    <t>Antropologia Social</t>
+  </si>
+  <si>
+    <t>Antropologia e Sociologia Urbana</t>
+  </si>
+  <si>
+    <t>Antropologia e Filosofia</t>
+  </si>
+  <si>
+    <t>Anatomia Radiológica</t>
+  </si>
+  <si>
+    <t>Anatomia Funcional</t>
+  </si>
+  <si>
+    <t>Algoritmos e Lógica de Programação</t>
+  </si>
+  <si>
+    <t>Algoritmos e Estruturas de Dados</t>
+  </si>
+  <si>
+    <t>Administração Pública e do Terceiro Setor</t>
+  </si>
+  <si>
+    <t>Administração Financeira e Orçamentária</t>
+  </si>
+  <si>
+    <t>Administração e Gestão em Saúde</t>
+  </si>
+  <si>
+    <t>Administração de Redes de Computadores</t>
+  </si>
+  <si>
+    <t>Administração de Produção, Materiais e Logística</t>
+  </si>
+  <si>
+    <t>Administração de Cargos, Salários e Benefícios</t>
+  </si>
+  <si>
+    <t>Acompanhamento Terapêutico</t>
+  </si>
+  <si>
+    <t>Acionamentos Elétricos</t>
+  </si>
+  <si>
+    <t>Abordagem Sistêmica</t>
   </si>
 </sst>
 </file>
@@ -14342,10 +16112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23E9A30-00DB-491B-B9AC-6DCB108E570F}">
-  <dimension ref="A1:B4634"/>
+  <dimension ref="A1:B5302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4617" workbookViewId="0">
+      <selection activeCell="D4630" sqref="D4630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51425,6 +53195,5350 @@
         <v>4428</v>
       </c>
     </row>
+    <row r="4635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4635" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B4635" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4636" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B4636" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4637" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B4637" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4638" t="s">
+        <v>4653</v>
+      </c>
+      <c r="B4638" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4639" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B4639" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4640" t="s">
+        <v>4656</v>
+      </c>
+      <c r="B4640" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4641" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B4641" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4642" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B4642" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4643" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B4643" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4644" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B4644" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4645" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B4645" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4646" t="s">
+        <v>4662</v>
+      </c>
+      <c r="B4646" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4647" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B4647" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4648" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B4648" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4649" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B4649" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4650" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B4650" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4651" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B4651" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4652" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B4652" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4653" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B4653" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4654" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B4654" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4655" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B4655" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4656" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B4656" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4657" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B4657" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4658" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B4658" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4659" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B4659" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4660" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B4660" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4661" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B4661" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4662" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B4662" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4663" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B4663" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4664" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B4664" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4665" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B4665" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4666" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B4666" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4667" t="s">
+        <v>4683</v>
+      </c>
+      <c r="B4667" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4668" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B4668" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4669" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B4669" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4670" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B4670" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4671" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B4671" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4672" t="s">
+        <v>4688</v>
+      </c>
+      <c r="B4672" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4673" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B4673" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4674" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B4674" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4675" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B4675" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4676" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B4676" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4677" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B4677" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4678" t="s">
+        <v>4694</v>
+      </c>
+      <c r="B4678" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4679" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B4679" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4680" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B4680" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4681" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B4681" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4682" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B4682" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4683" t="s">
+        <v>4699</v>
+      </c>
+      <c r="B4683" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4684" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B4684" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4685" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B4685" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4686" t="s">
+        <v>4702</v>
+      </c>
+      <c r="B4686" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4687" t="s">
+        <v>4703</v>
+      </c>
+      <c r="B4687" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4688" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B4688" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4689" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B4689" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4690" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B4690" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4691" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B4691" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4692" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B4692" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4693" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B4693" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4694" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B4694" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4695" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4695" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4696" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4696" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4697" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4697" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4698" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4698" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4699" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4699" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4700" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4700" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4701" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4701" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4702" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4702" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4703" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4703" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4704" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4704" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4705" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4705" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4706" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4706" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4707" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B4707" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4708" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B4708" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4709" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4709" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4710" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4710" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4711" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4711" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4712" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4712" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4713" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4713" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4714" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4714" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4715" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4715" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4716" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4716" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4717" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4717" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4718" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4718" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4719" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4719" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4720" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4720" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4721" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B4721" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4722" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B4722" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4723" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B4723" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4724" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B4724" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4725" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B4725" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4726" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B4726" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4727" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B4727" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4728" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B4728" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4729" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B4729" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4730" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4730" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4731" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B4731" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4732" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B4732" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4733" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B4733" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4734" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B4734" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4735" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B4735" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4736" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B4736" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4737" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B4737" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4738" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B4738" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4739" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B4739" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4740" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B4740" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4741" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B4741" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4742" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B4742" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4743" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B4743" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4744" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B4744" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4745" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B4745" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4746" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B4746" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4747" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B4747" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4748" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B4748" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4749" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B4749" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4750" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B4750" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4751" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B4751" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4752" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B4752" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4753" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B4753" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4754" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B4754" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4755" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B4755" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4756" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B4756" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4757" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B4757" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4758" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B4758" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4759" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B4759" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4760" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B4760" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4761" t="s">
+        <v>4746</v>
+      </c>
+      <c r="B4761" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4762" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B4762" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4763" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B4763" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4764" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B4764" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4765" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B4765" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4766" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B4766" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4767" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B4767" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4768" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B4768" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4769" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B4769" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4770" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B4770" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4771" t="s">
+        <v>4754</v>
+      </c>
+      <c r="B4771" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4772" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B4772" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4773" t="s">
+        <v>4756</v>
+      </c>
+      <c r="B4773" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4774" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B4774" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4775" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B4775" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4776" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B4776" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4777" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B4777" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4778" t="s">
+        <v>4760</v>
+      </c>
+      <c r="B4778" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4779" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B4779" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4780" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B4780" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4781" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B4781" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4782" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B4782" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4783" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B4783" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4784" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B4784" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4785" t="s">
+        <v>4766</v>
+      </c>
+      <c r="B4785" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4786" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B4786" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4787" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B4787" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4788" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B4788" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4789" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B4789" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4790" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B4790" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4791" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B4791" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4792" t="s">
+        <v>4772</v>
+      </c>
+      <c r="B4792" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4793" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B4793" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4794" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B4794" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4795" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B4795" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4796" t="s">
+        <v>4776</v>
+      </c>
+      <c r="B4796" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4797" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B4797" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4798" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B4798" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4799" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B4799" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4800" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B4800" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4801" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B4801" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4802" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B4802" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4803" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B4803" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4804" t="s">
+        <v>4783</v>
+      </c>
+      <c r="B4804" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4805" t="s">
+        <v>4784</v>
+      </c>
+      <c r="B4805" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4806" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B4806" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4807" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B4807" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4808" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B4808" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4809" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B4809" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4810" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B4810" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4811" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B4811" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4812" t="s">
+        <v>4791</v>
+      </c>
+      <c r="B4812" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4813" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B4813" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4814" t="s">
+        <v>4793</v>
+      </c>
+      <c r="B4814" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4815" t="s">
+        <v>915</v>
+      </c>
+      <c r="B4815" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4816" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B4816" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4817" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B4817" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4818" t="s">
+        <v>4796</v>
+      </c>
+      <c r="B4818" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4819" t="s">
+        <v>4797</v>
+      </c>
+      <c r="B4819" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4820" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B4820" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4821" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B4821" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4822" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B4822" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4823" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B4823" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4824" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B4824" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4825" t="s">
+        <v>4803</v>
+      </c>
+      <c r="B4825" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4826" t="s">
+        <v>4804</v>
+      </c>
+      <c r="B4826" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4827" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B4827" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4828" t="s">
+        <v>4806</v>
+      </c>
+      <c r="B4828" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4829" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B4829" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4830" t="s">
+        <v>4808</v>
+      </c>
+      <c r="B4830" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4831" t="s">
+        <v>4809</v>
+      </c>
+      <c r="B4831" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4832" t="s">
+        <v>4810</v>
+      </c>
+      <c r="B4832" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4833" t="s">
+        <v>4811</v>
+      </c>
+      <c r="B4833" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4834" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B4834" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4835" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B4835" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4836" t="s">
+        <v>4814</v>
+      </c>
+      <c r="B4836" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4837" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B4837" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4838" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B4838" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4839" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B4839" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4840" t="s">
+        <v>4818</v>
+      </c>
+      <c r="B4840" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4841" t="s">
+        <v>4819</v>
+      </c>
+      <c r="B4841" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4842" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B4842" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4843" t="s">
+        <v>4821</v>
+      </c>
+      <c r="B4843" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4844" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B4844" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4845" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B4845" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4846" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B4846" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4847" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B4847" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4848" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B4848" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4849" t="s">
+        <v>4827</v>
+      </c>
+      <c r="B4849" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4850" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B4850" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4851" t="s">
+        <v>4829</v>
+      </c>
+      <c r="B4851" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4852" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B4852" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4853" t="s">
+        <v>4831</v>
+      </c>
+      <c r="B4853" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4854" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B4854" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4855" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B4855" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4856" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B4856" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4857" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B4857" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4858" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B4858" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4859" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B4859" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4860" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B4860" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4861" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B4861" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4862" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B4862" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4863" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B4863" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4864" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B4864" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4865" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B4865" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4866" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B4866" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4867" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B4867" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4868" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B4868" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4869" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B4869" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4870" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B4870" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4871" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B4871" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4872" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B4872" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4873" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B4873" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4874" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B4874" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="4875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4875" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B4875" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4876" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B4876" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4877" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B4877" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4878" t="s">
+        <v>4856</v>
+      </c>
+      <c r="B4878" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4879" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B4879" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4880" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B4880" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4881" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B4881" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4882" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B4882" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4883" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B4883" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4884" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B4884" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4885" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B4885" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4886" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B4886" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4887" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B4887" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4888" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B4888" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4889" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B4889" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4890" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B4890" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4891" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B4891" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4892" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B4892" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4893" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B4893" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4894" t="s">
+        <v>4872</v>
+      </c>
+      <c r="B4894" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4895" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B4895" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4896" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B4896" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4897" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B4897" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4898" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B4898" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4899" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B4899" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4900" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B4900" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4901" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B4901" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4902" t="s">
+        <v>4880</v>
+      </c>
+      <c r="B4902" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4903" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B4903" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4904" t="s">
+        <v>4882</v>
+      </c>
+      <c r="B4904" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4905" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B4905" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4906" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B4906" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4907" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B4907" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4908" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B4908" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4909" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B4909" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4910" t="s">
+        <v>4887</v>
+      </c>
+      <c r="B4910" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4911" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B4911" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4912" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B4912" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4913" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B4913" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4914" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B4914" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4915" t="s">
+        <v>4892</v>
+      </c>
+      <c r="B4915" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4916" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B4916" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4917" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B4917" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4918" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B4918" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4919" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B4919" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4920" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B4920" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4921" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B4921" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4922" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B4922" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4923" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B4923" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4924" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B4924" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4925" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B4925" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4926" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B4926" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4927" t="s">
+        <v>4904</v>
+      </c>
+      <c r="B4927" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4928" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B4928" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4929" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B4929" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4930" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B4930" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4931" t="s">
+        <v>4908</v>
+      </c>
+      <c r="B4931" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4932" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B4932" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4933" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B4933" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4934" t="s">
+        <v>4910</v>
+      </c>
+      <c r="B4934" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4935" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B4935" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4936" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B4936" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4937" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B4937" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4938" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B4938" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4939" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B4939" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4940" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B4940" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4941" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B4941" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4942" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B4942" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4943" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B4943" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4944" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B4944" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4945" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B4945" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="4946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4946" t="s">
+        <v>4920</v>
+      </c>
+      <c r="B4946" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4947" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B4947" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4948" t="s">
+        <v>4922</v>
+      </c>
+      <c r="B4948" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4949" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4949" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4950" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B4950" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4951" t="s">
+        <v>4924</v>
+      </c>
+      <c r="B4951" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4952" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B4952" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4953" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B4953" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4954" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B4954" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4955" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B4955" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4956" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B4956" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4957" t="s">
+        <v>4930</v>
+      </c>
+      <c r="B4957" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4958" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B4958" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4959" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4959" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4960" t="s">
+        <v>4932</v>
+      </c>
+      <c r="B4960" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4961" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B4961" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4962" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B4962" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4963" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B4963" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4964" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B4964" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4965" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B4965" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4966" t="s">
+        <v>4937</v>
+      </c>
+      <c r="B4966" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4967" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B4967" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4968" t="s">
+        <v>4938</v>
+      </c>
+      <c r="B4968" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4969" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B4969" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4970" t="s">
+        <v>4940</v>
+      </c>
+      <c r="B4970" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4971" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B4971" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="4972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4972" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B4972" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4973" t="s">
+        <v>4944</v>
+      </c>
+      <c r="B4973" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4974" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B4974" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4975" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B4975" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="4976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4976" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B4976" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4977" t="s">
+        <v>4948</v>
+      </c>
+      <c r="B4977" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4978" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B4978" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="4979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4979" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B4979" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="4980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4980" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B4980" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4981" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B4981" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4982" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B4982" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4983" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B4983" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4984" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B4984" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4985" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B4985" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="4986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4986" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B4986" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4987" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B4987" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4988" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B4988" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4989" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B4989" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4990" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B4990" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4991" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B4991" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4992" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B4992" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4993" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B4993" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4994" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B4994" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4995" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B4995" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4996" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B4996" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="4997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4997" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B4997" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4998" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B4998" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="4999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4999" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B4999" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5000" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B5000" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5001" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B5001" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5002" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B5002" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5003" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B5003" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5004" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B5004" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5005" t="s">
+        <v>4973</v>
+      </c>
+      <c r="B5005" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5006" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B5006" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5007" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B5007" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5008" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B5008" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5009" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B5009" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5010" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B5010" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5011" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B5011" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5012" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B5012" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5013" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B5013" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5014" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B5014" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5015" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B5015" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5016" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B5016" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5017" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B5017" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5018" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B5018" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5019" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B5019" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5020" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B5020" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5021" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B5021" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5022" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B5022" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5023" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B5023" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5024" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B5024" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5025" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B5025" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5026" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B5026" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5027" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B5027" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5028" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B5028" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5029" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B5029" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5030" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B5030" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5031" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B5031" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5032" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B5032" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5033" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B5033" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5034" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5034" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B5034" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5035" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5035" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B5035" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5036" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5036" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B5036" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5037" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5037" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B5037" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5038" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5038" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B5038" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5039" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B5039" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5040" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5040" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B5040" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5041" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B5041" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5042" t="s">
+        <v>5004</v>
+      </c>
+      <c r="B5042" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5043" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B5043" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5044" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B5044" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5045" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B5045" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5046" t="s">
+        <v>5007</v>
+      </c>
+      <c r="B5046" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5047" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B5047" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5048" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B5048" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5049" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B5049" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5050" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B5050" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5051" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B5051" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5052" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B5052" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5053" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B5053" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5054" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B5054" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5055" t="s">
+        <v>5016</v>
+      </c>
+      <c r="B5055" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5056" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B5056" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5057" t="s">
+        <v>5018</v>
+      </c>
+      <c r="B5057" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5058" t="s">
+        <v>5019</v>
+      </c>
+      <c r="B5058" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5059" t="s">
+        <v>5020</v>
+      </c>
+      <c r="B5059" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5060" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B5060" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5061" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B5061" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5062" t="s">
+        <v>5023</v>
+      </c>
+      <c r="B5062" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5063" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B5063" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5064" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B5064" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5065" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B5065" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5066" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B5066" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5067" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B5067" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5068" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B5068" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5069" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B5069" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5070" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B5070" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5071" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B5071" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5072" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B5072" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5073" t="s">
+        <v>5032</v>
+      </c>
+      <c r="B5073" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5074" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B5074" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5075" t="s">
+        <v>5033</v>
+      </c>
+      <c r="B5075" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5076" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B5076" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5077" t="s">
+        <v>4098</v>
+      </c>
+      <c r="B5077" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5078" t="s">
+        <v>5035</v>
+      </c>
+      <c r="B5078" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5079" t="s">
+        <v>5036</v>
+      </c>
+      <c r="B5079" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5080" t="s">
+        <v>5037</v>
+      </c>
+      <c r="B5080" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5081" t="s">
+        <v>5038</v>
+      </c>
+      <c r="B5081" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5082" t="s">
+        <v>5039</v>
+      </c>
+      <c r="B5082" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5083" t="s">
+        <v>5040</v>
+      </c>
+      <c r="B5083" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5084" t="s">
+        <v>5041</v>
+      </c>
+      <c r="B5084" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5085" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5085" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5086" t="s">
+        <v>5042</v>
+      </c>
+      <c r="B5086" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5087" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5087" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5088" t="s">
+        <v>5043</v>
+      </c>
+      <c r="B5088" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5089" t="s">
+        <v>5044</v>
+      </c>
+      <c r="B5089" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5090" t="s">
+        <v>5045</v>
+      </c>
+      <c r="B5090" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5091" t="s">
+        <v>5046</v>
+      </c>
+      <c r="B5091" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5092" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B5092" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5093" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B5093" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5094" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B5094" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5095" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B5095" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5096" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B5096" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5097" t="s">
+        <v>5052</v>
+      </c>
+      <c r="B5097" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5098" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B5098" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5099" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B5099" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5100" t="s">
+        <v>5055</v>
+      </c>
+      <c r="B5100" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5101" t="s">
+        <v>5056</v>
+      </c>
+      <c r="B5101" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5102" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B5102" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5103" t="s">
+        <v>5058</v>
+      </c>
+      <c r="B5103" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5104" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B5104" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5105" t="s">
+        <v>5060</v>
+      </c>
+      <c r="B5105" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5106" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B5106" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5107" t="s">
+        <v>5062</v>
+      </c>
+      <c r="B5107" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5108" t="s">
+        <v>5063</v>
+      </c>
+      <c r="B5108" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5109" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B5109" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5110" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B5110" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5111" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B5111" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5112" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B5112" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5113" t="s">
+        <v>5068</v>
+      </c>
+      <c r="B5113" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5114" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B5114" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5115" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B5115" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5116" t="s">
+        <v>5071</v>
+      </c>
+      <c r="B5116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5117" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B5117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5118" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B5118" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5119" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B5119" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5120" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B5120" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5121" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B5121" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5122" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B5122" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5123" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B5123" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5124" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B5124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5125" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B5125" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5126" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B5126" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5127" t="s">
+        <v>5082</v>
+      </c>
+      <c r="B5127" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5128" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B5128" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5129" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B5129" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5130" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B5130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5131" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B5131" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5132" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B5132" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5133" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B5133" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5134" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B5134" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5135" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B5135" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5136" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B5136" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5137" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B5137" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5138" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B5138" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5139" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B5139" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5140" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B5140" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5141" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B5141" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5142" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B5142" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5143" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B5143" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5144" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B5144" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5145" t="s">
+        <v>5097</v>
+      </c>
+      <c r="B5145" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5146" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B5146" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5147" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B5147" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5148" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B5148" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5149" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B5149" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5150" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B5150" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5151" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B5151" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5152" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B5152" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5153" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B5153" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5154" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B5154" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5155" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B5155" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5156" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B5156" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5157" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B5157" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5158" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B5158" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5159" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B5159" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5160" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B5160" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5161" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B5161" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5162" t="s">
+        <v>5111</v>
+      </c>
+      <c r="B5162" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5163" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B5163" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5164" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B5164" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5165" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B5165" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5166" t="s">
+        <v>5114</v>
+      </c>
+      <c r="B5166" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5167" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B5167" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5168" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B5168" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5169" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B5169" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5170" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B5170" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5171" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B5171" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5172" t="s">
+        <v>5119</v>
+      </c>
+      <c r="B5172" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5173" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B5173" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5174" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B5174" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5175" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B5175" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5176" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B5176" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5177" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B5177" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5178" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B5178" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5179" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B5179" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5180" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B5180" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5181" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B5181" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5182" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B5182" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5183" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B5183" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5184" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B5184" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5185" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B5185" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5186" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B5186" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5187" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B5187" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5188" t="s">
+        <v>5135</v>
+      </c>
+      <c r="B5188" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5189" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B5189" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5190" t="s">
+        <v>5136</v>
+      </c>
+      <c r="B5190" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5191" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B5191" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5192" t="s">
+        <v>5138</v>
+      </c>
+      <c r="B5192" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5193" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B5193" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5194" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B5194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5195" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B5195" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5196" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B5196" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5197" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B5197" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5198" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B5198" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5199" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B5199" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5200" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B5200" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5201" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B5201" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5202" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B5202" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5203" t="s">
+        <v>5148</v>
+      </c>
+      <c r="B5203" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5204" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B5204" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5205" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B5205" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5206" t="s">
+        <v>5151</v>
+      </c>
+      <c r="B5206" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5207" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B5207" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5208" t="s">
+        <v>5153</v>
+      </c>
+      <c r="B5208" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5209" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B5209" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5210" t="s">
+        <v>5155</v>
+      </c>
+      <c r="B5210" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5211" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B5211" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5212" t="s">
+        <v>5157</v>
+      </c>
+      <c r="B5212" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5213" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B5213" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5214" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B5214" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5215" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B5215" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5216" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B5216" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5217" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B5217" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5218" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B5218" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5219" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B5219" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5220" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B5220" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5221" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B5221" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5222" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B5222" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5223" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B5223" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5224" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B5224" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5225" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B5225" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5226" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B5226" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5227" t="s">
+        <v>5170</v>
+      </c>
+      <c r="B5227" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5228" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B5228" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5229" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B5229" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5230" t="s">
+        <v>5173</v>
+      </c>
+      <c r="B5230" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5231" t="s">
+        <v>5174</v>
+      </c>
+      <c r="B5231" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5232" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B5232" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5233" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B5233" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5234" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B5234" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5235" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B5235" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5236" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B5236" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5237" t="s">
+        <v>5178</v>
+      </c>
+      <c r="B5237" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5238" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B5238" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5239" t="s">
+        <v>5180</v>
+      </c>
+      <c r="B5239" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5240" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B5240" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5241" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B5241" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5242" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B5242" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5243" t="s">
+        <v>5184</v>
+      </c>
+      <c r="B5243" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5244" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B5244" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5245" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B5245" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5246" t="s">
+        <v>5186</v>
+      </c>
+      <c r="B5246" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5247" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B5247" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5248" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B5248" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5249" t="s">
+        <v>5188</v>
+      </c>
+      <c r="B5249" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5250" t="s">
+        <v>5189</v>
+      </c>
+      <c r="B5250" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5251" t="s">
+        <v>5190</v>
+      </c>
+      <c r="B5251" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5252" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B5252" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5253" t="s">
+        <v>5191</v>
+      </c>
+      <c r="B5253" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5254" t="s">
+        <v>5192</v>
+      </c>
+      <c r="B5254" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5255" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B5255" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5256" t="s">
+        <v>5194</v>
+      </c>
+      <c r="B5256" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5257" t="s">
+        <v>5195</v>
+      </c>
+      <c r="B5257" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5258" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B5258" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5259" t="s">
+        <v>5196</v>
+      </c>
+      <c r="B5259" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5260" t="s">
+        <v>5197</v>
+      </c>
+      <c r="B5260" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5261" t="s">
+        <v>5198</v>
+      </c>
+      <c r="B5261" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5262" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B5262" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5263" t="s">
+        <v>5200</v>
+      </c>
+      <c r="B5263" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5264" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B5264" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5265" t="s">
+        <v>5202</v>
+      </c>
+      <c r="B5265" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5266" t="s">
+        <v>5203</v>
+      </c>
+      <c r="B5266" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5267" t="s">
+        <v>5204</v>
+      </c>
+      <c r="B5267" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5268" t="s">
+        <v>5205</v>
+      </c>
+      <c r="B5268" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5269" t="s">
+        <v>5206</v>
+      </c>
+      <c r="B5269" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5270" t="s">
+        <v>5207</v>
+      </c>
+      <c r="B5270" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5271" t="s">
+        <v>5208</v>
+      </c>
+      <c r="B5271" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5272" t="s">
+        <v>5209</v>
+      </c>
+      <c r="B5272" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5273" t="s">
+        <v>5210</v>
+      </c>
+      <c r="B5273" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5274" t="s">
+        <v>5211</v>
+      </c>
+      <c r="B5274" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5275" t="s">
+        <v>5212</v>
+      </c>
+      <c r="B5275" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5276" t="s">
+        <v>5213</v>
+      </c>
+      <c r="B5276" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5277" t="s">
+        <v>5214</v>
+      </c>
+      <c r="B5277" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5278" t="s">
+        <v>5215</v>
+      </c>
+      <c r="B5278" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5279" t="s">
+        <v>5216</v>
+      </c>
+      <c r="B5279" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5280" t="s">
+        <v>5217</v>
+      </c>
+      <c r="B5280" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5281" t="s">
+        <v>5218</v>
+      </c>
+      <c r="B5281" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5282" t="s">
+        <v>5219</v>
+      </c>
+      <c r="B5282" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5283" t="s">
+        <v>5220</v>
+      </c>
+      <c r="B5283" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5284" t="s">
+        <v>5221</v>
+      </c>
+      <c r="B5284" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5285" t="s">
+        <v>5222</v>
+      </c>
+      <c r="B5285" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5286" t="s">
+        <v>5223</v>
+      </c>
+      <c r="B5286" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5287" t="s">
+        <v>5224</v>
+      </c>
+      <c r="B5287" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5288" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B5288" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5289" t="s">
+        <v>5226</v>
+      </c>
+      <c r="B5289" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5290" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B5290" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5291" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B5291" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5292" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B5292" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5293" t="s">
+        <v>5229</v>
+      </c>
+      <c r="B5293" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5294" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B5294" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5295" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B5295" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5296" t="s">
+        <v>5232</v>
+      </c>
+      <c r="B5296" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5297" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B5297" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5298" t="s">
+        <v>5234</v>
+      </c>
+      <c r="B5298" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5299" t="s">
+        <v>5235</v>
+      </c>
+      <c r="B5299" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5300" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B5300" t="s">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5301" t="s">
+        <v>5237</v>
+      </c>
+      <c r="B5301" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5302" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B5302" t="s">
+        <v>4650</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/excel/atual.xlsx
+++ b/excel/atual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Fonseca\Desktop\BLOX\blox\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9930599-FBD7-432C-A44E-64F709903FCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C79D7A-EFB9-4195-9FE5-C994D9D4B316}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{731713CE-4F6F-4F71-BD02-398E5AD803BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10603" uniqueCount="5239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10723" uniqueCount="5297">
   <si>
     <t>Acolhimento em Emergências</t>
   </si>
@@ -15748,6 +15748,180 @@
   </si>
   <si>
     <t>Abordagem Sistêmica</t>
+  </si>
+  <si>
+    <t>Análise Multivariada de Dados</t>
+  </si>
+  <si>
+    <t>Capital, Mercado e Sistema Produtivo</t>
+  </si>
+  <si>
+    <t>Comportamento do Consumidor Internacional</t>
+  </si>
+  <si>
+    <t>Consumer Insights</t>
+  </si>
+  <si>
+    <t>Cultura e Consumo</t>
+  </si>
+  <si>
+    <t>Data Science e Inteligência Analítica</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Econômico e Padrões de Consumo</t>
+  </si>
+  <si>
+    <t>Economia do Consumo</t>
+  </si>
+  <si>
+    <t>Elementos de Filosofia da Ciência</t>
+  </si>
+  <si>
+    <t>Estágio Docente em Administração</t>
+  </si>
+  <si>
+    <t>Estética, Consumo Midiático e Dinâmicas Sócio-Culturais</t>
+  </si>
+  <si>
+    <t>Estilo de Vida e Consumo</t>
+  </si>
+  <si>
+    <t>Estratégia e Inovação Internacional</t>
+  </si>
+  <si>
+    <t>Estratégia Internacional e os Mercados Emergentes</t>
+  </si>
+  <si>
+    <t>Estudos Culturais, Processos de Recepção e de Consumo</t>
+  </si>
+  <si>
+    <t>Estudos de Comunicação e Linguagens</t>
+  </si>
+  <si>
+    <t>Ética, Discurso Comunicacional e Estratégias Corporativas</t>
+  </si>
+  <si>
+    <t>Experimentos em Marketing e Neurociência</t>
+  </si>
+  <si>
+    <t>Formação em Epistemologia</t>
+  </si>
+  <si>
+    <t>Fundamentos do Comportamento do Consumidor</t>
+  </si>
+  <si>
+    <t>Fundamentos Teóricos em Gestão Internacional</t>
+  </si>
+  <si>
+    <t>Gestão Global da Inovação</t>
+  </si>
+  <si>
+    <t>História das Interfaces Comunicação e Consumo I</t>
+  </si>
+  <si>
+    <t>História das Interfaces Comunicação e Consumo II</t>
+  </si>
+  <si>
+    <t>Inclusão da Diversidade e Causas nas Organizações</t>
+  </si>
+  <si>
+    <t>Internacionalização de Empresas com Foco em Inovação</t>
+  </si>
+  <si>
+    <t>Marketing de Relacionamento</t>
+  </si>
+  <si>
+    <t>Marketing e Difusão de Novos Produtos no Ambiente Global</t>
+  </si>
+  <si>
+    <t>Marketing em Agronegócios e Alimentos</t>
+  </si>
+  <si>
+    <t>Marketing em Gestão Internacional</t>
+  </si>
+  <si>
+    <t>Metodologia Qualitativa I</t>
+  </si>
+  <si>
+    <t>Metodologia Quantitativa I</t>
+  </si>
+  <si>
+    <t>Métodos de Pesquisa Qualitativa Avançada</t>
+  </si>
+  <si>
+    <t>Métodos de Pesquisa Qualitativa I</t>
+  </si>
+  <si>
+    <t>Métodos de Pesquisa Quantitativa I</t>
+  </si>
+  <si>
+    <t>Métricas e Escalas em Marketing</t>
+  </si>
+  <si>
+    <t>O Lado Obscuro do Marketing e Seus Consumidores</t>
+  </si>
+  <si>
+    <t>Parcerias Públicos-Privadas em Negócios Internacionais</t>
+  </si>
+  <si>
+    <t>Práticas Inovadoras</t>
+  </si>
+  <si>
+    <t>Projeto de Pesquisa</t>
+  </si>
+  <si>
+    <t>Seminário de Pesquisa I</t>
+  </si>
+  <si>
+    <t>Seminário de Pesquisa II</t>
+  </si>
+  <si>
+    <t>Seminários Avançados de Pesquisa em Comportamento do Consumidor</t>
+  </si>
+  <si>
+    <t>Seminários de Escrita Acadêmica</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção I</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção II</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção III</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Contextos de Recepção IV</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção I</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção II</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção III</t>
+  </si>
+  <si>
+    <t>Temas Contemporâneos em Comunicação, Consumo e Lógicas de Produção IV</t>
+  </si>
+  <si>
+    <t>Teoria da Prática da Educação de Nível Superior</t>
+  </si>
+  <si>
+    <t>Teoria em Marketing</t>
+  </si>
+  <si>
+    <t>Teorias da Comunicação e da Mídia</t>
+  </si>
+  <si>
+    <t>Teorias das Organizações em Ambiente Global</t>
+  </si>
+  <si>
+    <t>Tópicos Avançados de Marketing</t>
+  </si>
+  <si>
+    <t>Supervisão de Dissertação/Tese</t>
   </si>
 </sst>
 </file>
@@ -16112,15 +16286,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23E9A30-00DB-491B-B9AC-6DCB108E570F}">
-  <dimension ref="A1:B5302"/>
+  <dimension ref="A1:B5362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4617" workbookViewId="0">
-      <selection activeCell="D4630" sqref="D4630"/>
+    <sheetView tabSelected="1" topLeftCell="A2521" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="190.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -58539,6 +58714,486 @@
         <v>4650</v>
       </c>
     </row>
+    <row r="5303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5303" t="s">
+        <v>5239</v>
+      </c>
+      <c r="B5303" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5304" t="s">
+        <v>5240</v>
+      </c>
+      <c r="B5304" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5305" t="s">
+        <v>5241</v>
+      </c>
+      <c r="B5305" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5306" t="s">
+        <v>5242</v>
+      </c>
+      <c r="B5306" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5307" t="s">
+        <v>5243</v>
+      </c>
+      <c r="B5307" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5308" t="s">
+        <v>5244</v>
+      </c>
+      <c r="B5308" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5309" t="s">
+        <v>5245</v>
+      </c>
+      <c r="B5309" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5310" t="s">
+        <v>5246</v>
+      </c>
+      <c r="B5310" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5311" t="s">
+        <v>5247</v>
+      </c>
+      <c r="B5311" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5312" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B5312" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5313" t="s">
+        <v>5249</v>
+      </c>
+      <c r="B5313" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5314" t="s">
+        <v>5250</v>
+      </c>
+      <c r="B5314" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5315" t="s">
+        <v>5251</v>
+      </c>
+      <c r="B5315" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5316" t="s">
+        <v>5252</v>
+      </c>
+      <c r="B5316" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5317" t="s">
+        <v>5253</v>
+      </c>
+      <c r="B5317" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5318" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B5318" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5319" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B5319" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5320" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B5320" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5321" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B5321" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5322" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B5322" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5323" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B5323" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5324" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B5324" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5325" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B5325" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5326" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B5326" t="s">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5327" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B5327" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5328" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B5328" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5329" t="s">
+        <v>5265</v>
+      </c>
+      <c r="B5329" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5330" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B5330" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5331" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B5331" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5332" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B5332" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5333" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B5333" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5334" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5334" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5335" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B5335" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5336" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B5336" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5337" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B5337" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5338" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B5338" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5339" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B5339" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5340" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B5340" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5341" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B5341" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5342" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B5342" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5343" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B5343" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5344" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B5344" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5345" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B5345" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5346" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B5346" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5347" t="s">
+        <v>5281</v>
+      </c>
+      <c r="B5347" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5348" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B5348" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5349" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B5349" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5350" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B5350" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5351" t="s">
+        <v>5285</v>
+      </c>
+      <c r="B5351" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5352" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B5352" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5353" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B5353" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5354" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B5354" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5355" t="s">
+        <v>5289</v>
+      </c>
+      <c r="B5355" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5356" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B5356" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5357" t="s">
+        <v>5291</v>
+      </c>
+      <c r="B5357" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5358" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B5358" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5359" t="s">
+        <v>5293</v>
+      </c>
+      <c r="B5359" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5360" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B5360" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5361" t="s">
+        <v>5295</v>
+      </c>
+      <c r="B5361" t="s">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5362" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B5362" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/excel/atual.xlsx
+++ b/excel/atual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Fonseca\Desktop\BLOX\blox\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C79D7A-EFB9-4195-9FE5-C994D9D4B316}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1285EFCF-0AC3-477B-99CC-FF47FE0629B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{731713CE-4F6F-4F71-BD02-398E5AD803BD}"/>
   </bookViews>
